--- a/ParametricGraph/SIRVD.xlsx
+++ b/ParametricGraph/SIRVD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -963,7 +963,7 @@
   <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="J1:K1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
